--- a/docs/Persons.xlsx
+++ b/docs/Persons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">Attributes</t>
   </si>
@@ -52,13 +52,10 @@
     <t xml:space="preserve">jane.doe@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houseNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
+    <t xml:space="preserve">address.houseNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address.city</t>
   </si>
   <si>
     <t xml:space="preserve">Sample City</t>
@@ -67,7 +64,7 @@
     <t xml:space="preserve">Test-city</t>
   </si>
   <si>
-    <t xml:space="preserve">pincode</t>
+    <t xml:space="preserve">address.pincode</t>
   </si>
   <si>
     <t xml:space="preserve">household</t>
@@ -299,15 +296,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="994" style="0" width="9.14"/>
   </cols>
@@ -353,7 +350,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="str">
-        <f aca="false">CONCATENATE(A3,IF(B3&lt;&gt;"","."&amp;B3,""),IF(C3&lt;&gt;"","."&amp;C3,""))</f>
+        <f aca="false">CONCATENATE(A3,IF(B3&lt;&gt;"","."&amp;B3,""),IF(C3&lt;&gt;"","@"&amp;C3,""))</f>
         <v>personalInfo.name</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -372,7 +369,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="str">
-        <f aca="false">CONCATENATE(A4,IF(B4&lt;&gt;"","."&amp;B4,""),IF(C4&lt;&gt;"","."&amp;C4,""))</f>
+        <f aca="false">CONCATENATE(A4,IF(B4&lt;&gt;"","."&amp;B4,""),IF(C4&lt;&gt;"","@"&amp;C4,""))</f>
         <v>personalInfo.email</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -389,11 +386,9 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="str">
-        <f aca="false">CONCATENATE(A5,IF(B5&lt;&gt;"","."&amp;B5,""),IF(C5&lt;&gt;"","."&amp;C5,""))</f>
+        <f aca="false">CONCATENATE(A5,IF(B5&lt;&gt;"","."&amp;B5,""),IF(C5&lt;&gt;"","@"&amp;C5,""))</f>
         <v>personalInfo.address.houseNumber</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -408,20 +403,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f aca="false">CONCATENATE(A6,IF(B6&lt;&gt;"","."&amp;B6,""),IF(C6&lt;&gt;"","@"&amp;C6,""))</f>
+        <v>personalInfo.address.city</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f aca="false">CONCATENATE(A6,IF(B6&lt;&gt;"","."&amp;B6,""),IF(C6&lt;&gt;"","."&amp;C6,""))</f>
-        <v>personalInfo.address.city</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,13 +422,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="str">
-        <f aca="false">CONCATENATE(A7,IF(B7&lt;&gt;"","."&amp;B7,""),IF(C7&lt;&gt;"","."&amp;C7,""))</f>
+        <f aca="false">CONCATENATE(A7,IF(B7&lt;&gt;"","."&amp;B7,""),IF(C7&lt;&gt;"","@"&amp;C7,""))</f>
         <v>personalInfo.address.pincode</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -450,61 +441,61 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="str">
-        <f aca="false">CONCATENATE(A8,IF(B8&lt;&gt;"","."&amp;B8,""),IF(C8&lt;&gt;"","."&amp;C8,""))</f>
+        <f aca="false">CONCATENATE(A8,IF(B8&lt;&gt;"","."&amp;B8,""),IF(C8&lt;&gt;"","@"&amp;C8,""))</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
-        <f aca="false">CONCATENATE(A9,IF(B9&lt;&gt;"","."&amp;B9,""),IF(C9&lt;&gt;"","."&amp;C9,""))</f>
+        <f aca="false">CONCATENATE(A9,IF(B9&lt;&gt;"","."&amp;B9,""),IF(C9&lt;&gt;"","@"&amp;C9,""))</f>
         <v>household.children</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="str">
-        <f aca="false">CONCATENATE(A10,IF(B10&lt;&gt;"","."&amp;B10,""),IF(C10&lt;&gt;"","."&amp;C10,""))</f>
+        <f aca="false">CONCATENATE(A10,IF(B10&lt;&gt;"","."&amp;B10,""),IF(C10&lt;&gt;"","@"&amp;C10,""))</f>
         <v>household.married</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="2" t="str">
-        <f aca="false">CONCATENATE(A11,IF(B11&lt;&gt;"","."&amp;B11,""),IF(C11&lt;&gt;"","."&amp;C11,""))</f>
-        <v>household.partner.age</v>
+        <f aca="false">CONCATENATE(A11,IF(B11&lt;&gt;"","."&amp;B11,""),IF(C11&lt;&gt;"","@"&amp;C11,""))</f>
+        <v>household.partner@age</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>32</v>
@@ -515,23 +506,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f aca="false">CONCATENATE(A12,IF(B12&lt;&gt;"","."&amp;B12,""),IF(C12&lt;&gt;"","."&amp;C12,""))</f>
-        <v>household.partner.name</v>
+        <f aca="false">CONCATENATE(A12,IF(B12&lt;&gt;"","."&amp;B12,""),IF(C12&lt;&gt;"","@"&amp;C12,""))</f>
+        <v>household.partner@name</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
